--- a/templates/PORT/country_data.xlsx
+++ b/templates/PORT/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr updateLinks="never" codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icedu\Documents\repos\mr-risk-assessment\templates\PORT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment/templates/PORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD35632-1C6F-4C62-8816-BDB3882AF2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{DFD35632-1C6F-4C62-8816-BDB3882AF2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92C6B902-6036-4D7B-80E0-C8E6394421D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="773" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Geral" sheetId="1" r:id="rId1"/>
@@ -670,9 +670,6 @@
     <t>História de viagem</t>
   </si>
   <si>
-    <t>Porcentagem de hospitais subnacionais com pessoal treinado para triagem e isolamento de casos suspeitos de sarampo e rubéola</t>
-  </si>
-  <si>
     <t>Cobertura da última campanha de seguimento</t>
   </si>
   <si>
@@ -683,16 +680,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Áreas subnacionais com uma equipe que foi treinada para resposta a surtos nos últimos 2 anos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,###;&quot;-&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="29">
@@ -1112,7 +1111,7 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1253,10 +1252,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1266,36 +1261,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="10" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="10" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="5" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1313,6 +1278,36 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="10" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="10" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="5" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1338,20 +1333,6 @@
   <dxfs count="58">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1364,9 +1345,14 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
-      <protection locked="0" hidden="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1485,29 +1471,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <sz val="9"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1641,7 +1604,7 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1903,6 +1866,38 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2259,32 +2254,32 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" dataDxfId="48" totalsRowDxfId="47"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Admin2 geo codes" dataDxfId="46" totalsRowDxfId="45"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Admin1" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Reporting municipality" dataDxfId="0" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Case ID" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Final classification" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Date of birth" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sex" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Place of residence" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Presence of fever" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Date of rash onset" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Vaccination status" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Number of vaccine doses" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Date of notification" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Date of investigation" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Date of blood sample collection" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Date received in lab " dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Date of last vaccination" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Travel history" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Reporting municipality" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Case ID" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Final classification" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Date of birth" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sex" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Place of residence" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Presence of fever" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Date of rash onset" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Vaccination status" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Number of vaccine doses" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Date of notification" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Date of investigation" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Date of blood sample collection" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Date received in lab " dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Date of last vaccination" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Travel history" dataDxfId="13" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tbl_final_classification" displayName="tbl_final_classification" ref="A1:A5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tbl_final_classification" displayName="tbl_final_classification" ref="A1:A5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Normal 2">
   <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Final Classification" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Final Classification" dataDxfId="9" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2301,40 +2296,40 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tbl_num_of_doses" displayName="tbl_num_of_doses" ref="E1:E8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tbl_num_of_doses" displayName="tbl_num_of_doses" ref="E1:E8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Normal 2">
   <autoFilter ref="E1:E8" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Number Of Doses" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Number Of Doses" dataDxfId="6" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tbl_vaccination_status" displayName="tbl_vaccination_status" ref="G1:G5" totalsRowShown="0" dataDxfId="7" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tbl_vaccination_status" displayName="tbl_vaccination_status" ref="G1:G5" totalsRowShown="0" dataDxfId="5" dataCellStyle="Normal 2">
   <autoFilter ref="G1:G5" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vaccination Status" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vaccination Status" dataDxfId="4" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="tbl_Yes_No" displayName="tbl_Yes_No" ref="I1:I3" totalsRowShown="0" dataDxfId="5" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="tbl_Yes_No" displayName="tbl_Yes_No" ref="I1:I3" totalsRowShown="0" dataDxfId="3" dataCellStyle="Normal 2">
   <autoFilter ref="I1:I3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Yes No" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Yes No" dataDxfId="2" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tbl_Travel_History" displayName="tbl_Travel_History" ref="K1:K4" totalsRowShown="0" dataDxfId="3" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tbl_Travel_History" displayName="tbl_Travel_History" ref="K1:K4" totalsRowShown="0" dataDxfId="1" dataCellStyle="Normal 2">
   <autoFilter ref="K1:K4" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Travel History" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Travel History" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2644,11 +2639,11 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30.9" customHeight="1">
@@ -2736,14 +2731,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" style="41" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="22"/>
+    <col min="1" max="2" width="13.90625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="27.90625" style="41" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1">
@@ -2757,7 +2752,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="45" t="s">
         <v>54</v>
@@ -2767,92 +2762,92 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -2871,59 +2866,59 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="10.88671875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="22" customWidth="1"/>
-    <col min="10" max="11" width="8.109375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" style="22" customWidth="1"/>
-    <col min="13" max="14" width="7.44140625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="22"/>
+    <col min="1" max="2" width="10.90625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="7.08984375" style="22" customWidth="1"/>
+    <col min="10" max="11" width="8.08984375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="7.90625" style="22" customWidth="1"/>
+    <col min="13" max="14" width="7.453125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="16.54296875" style="22" customWidth="1"/>
+    <col min="16" max="16384" width="9.08984375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60.9" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="52" t="s">
+      <c r="D1" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52" t="s">
-        <v>96</v>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="34">
         <f>'1-Geral'!$B$3-5</f>
         <v>2019</v>
@@ -2964,11 +2959,11 @@
         <f>'1-Geral'!$B$3-1</f>
         <v>2023</v>
       </c>
-      <c r="O2" s="53"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="43"/>
@@ -2984,8 +2979,8 @@
       <c r="O3" s="43"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="43"/>
@@ -3001,8 +2996,8 @@
       <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="43"/>
@@ -3018,8 +3013,8 @@
       <c r="O5" s="43"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="43"/>
@@ -3035,8 +3030,8 @@
       <c r="O6" s="43"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="43"/>
@@ -3052,8 +3047,8 @@
       <c r="O7" s="43"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="43"/>
@@ -3069,8 +3064,8 @@
       <c r="O8" s="43"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="43"/>
@@ -3086,8 +3081,8 @@
       <c r="O9" s="43"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="43"/>
@@ -3103,8 +3098,8 @@
       <c r="O10" s="43"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="43"/>
@@ -3120,8 +3115,8 @@
       <c r="O11" s="43"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="43"/>
@@ -3161,32 +3156,32 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
-    <col min="8" max="8" width="32.109375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="32.08984375" style="22" customWidth="1"/>
     <col min="9" max="9" width="30" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="22"/>
+    <col min="10" max="16384" width="9.08984375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="57.9" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>98</v>
+      <c r="D1" s="56" t="s">
+        <v>97</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>56</v>
@@ -3205,10 +3200,10 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="34">
         <f>'1-Geral'!$B$3-1</f>
         <v>2023</v>
@@ -3231,8 +3226,8 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="43"/>
@@ -3248,8 +3243,8 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="43"/>
@@ -3265,8 +3260,8 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="43"/>
@@ -3282,8 +3277,8 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="43"/>
@@ -3299,8 +3294,8 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="43"/>
@@ -3316,8 +3311,8 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="43"/>
@@ -3333,8 +3328,8 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="43"/>
@@ -3350,8 +3345,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="43"/>
@@ -3367,8 +3362,8 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="43"/>
@@ -3384,8 +3379,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="43"/>
@@ -3401,8 +3396,8 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="43"/>
@@ -3439,34 +3434,34 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="12.5546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="22" customWidth="1"/>
+    <col min="1" max="2" width="12.54296875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="24.90625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" style="22" customWidth="1"/>
     <col min="10" max="10" width="20" style="22" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="22"/>
+    <col min="11" max="11" width="19.08984375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="9.08984375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="112.5" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>98</v>
+      <c r="D1" s="56" t="s">
+        <v>97</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>61</v>
@@ -3493,11 +3488,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29.1" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+    <row r="2" spans="1:12" ht="29.15" customHeight="1">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="34">
         <f>'1-Geral'!$B$3-1</f>
         <v>2023</v>
@@ -3532,8 +3527,8 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="26"/>
@@ -3546,8 +3541,8 @@
       <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="26"/>
@@ -3560,8 +3555,8 @@
       <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="26"/>
@@ -3574,8 +3569,8 @@
       <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="26"/>
@@ -3588,8 +3583,8 @@
       <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26"/>
@@ -3602,8 +3597,8 @@
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26"/>
@@ -3616,8 +3611,8 @@
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26"/>
@@ -3630,8 +3625,8 @@
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="26"/>
@@ -3679,47 +3674,47 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="35.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="35.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.4">
+    <row r="1" spans="1:19" ht="23.5">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
       <c r="O1" s="9"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -3732,24 +3727,24 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
       <c r="O2" s="6"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="15.6">
+    <row r="3" spans="1:19" ht="15.5">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17" t="str">
@@ -3758,17 +3753,17 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="6"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -3781,17 +3776,17 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
       <c r="O4" s="6"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -3804,17 +3799,17 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
       <c r="O5" s="6"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -3827,17 +3822,17 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
       <c r="O6" s="6"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -3850,15 +3845,15 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
       <c r="O7" s="6"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -3871,15 +3866,15 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
       <c r="O8" s="6"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -3992,7 +3987,7 @@
         <v>42</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>85</v>
@@ -4126,33 +4121,33 @@
       <c r="S14" s="39"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62">
+      <c r="A15" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51">
         <f>SUBTOTAL(103,table_case_based_data18[Reporting municipality])</f>
         <v>0</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="52">
         <f>SUBTOTAL(103,table_case_based_data18[Case ID])</f>
         <v>0</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="62"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="51"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="20"/>
@@ -4724,17 +4719,17 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="10.44140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.453125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="22" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="22"/>
+    <col min="6" max="6" width="33.453125" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="91.65" customHeight="1">
@@ -4748,86 +4743,86 @@
         <v>28</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>68</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="25"/>
-      <c r="F2" s="47"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="25"/>
-      <c r="F3" s="47"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="47"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="47"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="47"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="47"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="47"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="47"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="47"/>
+      <c r="F10" s="25"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -4840,7 +4835,7 @@
           <x14:formula1>
             <xm:f>_ListValues!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E10</xm:sqref>
+          <xm:sqref>E2:F10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4859,17 +4854,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.08984375" style="6" customWidth="1"/>
     <col min="3" max="3" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.08984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.08984375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.453125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="6"/>
-    <col min="11" max="11" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8" style="6"/>
   </cols>
   <sheetData>
@@ -4988,6 +4983,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C69FE739999C447A76F1EF8B3FD66E4" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbd048430c8551c34c2c3c8571f1b260">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4655c133-e14e-4d88-8fbc-c3b347145ec5" xmlns:ns4="64ced670-a384-4657-ba0f-fc07d30f5a44" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5457dbb80d17598a17de4d439e456cf2" ns3:_="" ns4:_="">
     <xsd:import namespace="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
@@ -5210,22 +5220,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A51E5E2-41F2-4A1F-A4B0-950DEDB4B143}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="64ced670-a384-4657-ba0f-fc07d30f5a44"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6264E33-6917-4678-8EC8-8D88A2F9795C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C9E008-75C3-4280-8CCC-7498B59407BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5242,29 +5262,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6264E33-6917-4678-8EC8-8D88A2F9795C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A51E5E2-41F2-4A1F-A4B0-950DEDB4B143}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="64ced670-a384-4657-ba0f-fc07d30f5a44"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>